--- a/core/seed_inventories_inventorydeductdetail.xlsx
+++ b/core/seed_inventories_inventorydeductdetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F420D94-50FD-42D3-BDAF-4CDC1697F44B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E40C14-2233-42B0-9AB7-2818AB179255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>HEADER CODE</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>ID 01</t>
+  </si>
+  <si>
+    <t>ID 02</t>
   </si>
 </sst>
 </file>
@@ -910,18 +913,18 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
